--- a/data/league_data/spain/19/spain_possession.xlsx
+++ b/data/league_data/spain/19/spain_possession.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02150D5F-CEA4-C64E-8BA4-BEC9470F289C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E454719E-73AF-7940-B357-0A8FEA5D74F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="597">
   <si>
     <t>Touches</t>
   </si>
@@ -1114,9 +1114,6 @@
     <t>Rubén Pardo</t>
   </si>
   <si>
-    <t>Naldo</t>
-  </si>
-  <si>
     <t>Gonzalo Melero</t>
   </si>
   <si>
@@ -1805,6 +1802,15 @@
   </si>
   <si>
     <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Sergio Álvarez Diaz</t>
+  </si>
+  <si>
+    <t>Naldo Gomes</t>
+  </si>
+  <si>
+    <t>Juanfran Moreno</t>
   </si>
 </sst>
 </file>
@@ -2674,8 +2680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="B259" sqref="B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13973,7 +13979,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>31</v>
@@ -24451,7 +24457,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>31</v>
@@ -27977,7 +27983,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>328</v>
+        <v>596</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>31</v>
@@ -29347,7 +29353,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>364</v>
+        <v>595</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>81</v>
@@ -29445,7 +29451,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>31</v>
@@ -29543,7 +29549,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>194</v>
@@ -29641,7 +29647,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>31</v>
@@ -29739,7 +29745,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>31</v>
@@ -29837,7 +29843,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>194</v>
@@ -29935,7 +29941,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>31</v>
@@ -30033,7 +30039,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>31</v>
@@ -30131,7 +30137,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>43</v>
@@ -30229,7 +30235,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>139</v>
@@ -30327,7 +30333,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>31</v>
@@ -30425,7 +30431,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>31</v>
@@ -30523,7 +30529,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>31</v>
@@ -30619,7 +30625,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>31</v>
@@ -30717,7 +30723,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>31</v>
@@ -30815,7 +30821,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>183</v>
@@ -30913,10 +30919,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C289" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="C289" s="4" t="s">
-        <v>381</v>
       </c>
       <c r="D289" s="4" t="s">
         <v>45</v>
@@ -31011,7 +31017,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>81</v>
@@ -31109,7 +31115,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>31</v>
@@ -31207,7 +31213,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>31</v>
@@ -31305,7 +31311,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>31</v>
@@ -31403,7 +31409,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>50</v>
@@ -31501,7 +31507,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>31</v>
@@ -31599,7 +31605,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>31</v>
@@ -31695,7 +31701,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>31</v>
@@ -31793,7 +31799,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>300</v>
@@ -31891,7 +31897,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>31</v>
@@ -31989,7 +31995,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>31</v>
@@ -32087,7 +32093,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>31</v>
@@ -32185,7 +32191,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>50</v>
@@ -32283,7 +32289,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>31</v>
@@ -32381,7 +32387,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>31</v>
@@ -32479,7 +32485,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>116</v>
@@ -32577,7 +32583,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>48</v>
@@ -32673,7 +32679,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>31</v>
@@ -32771,7 +32777,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>388</v>
+        <v>594</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>31</v>
@@ -32869,7 +32875,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>113</v>
@@ -32967,10 +32973,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C310" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="C310" s="4" t="s">
-        <v>402</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>53</v>
@@ -33065,7 +33071,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>31</v>
@@ -33163,7 +33169,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>31</v>
@@ -33261,7 +33267,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>116</v>
@@ -33359,10 +33365,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C314" s="4" t="s">
         <v>406</v>
-      </c>
-      <c r="C314" s="4" t="s">
-        <v>407</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>40</v>
@@ -33457,7 +33463,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>31</v>
@@ -33555,7 +33561,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>31</v>
@@ -33653,7 +33659,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>43</v>
@@ -33751,7 +33757,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>203</v>
@@ -33849,7 +33855,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>31</v>
@@ -33947,7 +33953,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>31</v>
@@ -34045,7 +34051,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>31</v>
@@ -34143,7 +34149,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>116</v>
@@ -34241,7 +34247,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>31</v>
@@ -34339,7 +34345,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>31</v>
@@ -34437,7 +34443,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>31</v>
@@ -34535,10 +34541,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C326" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="C326" s="4" t="s">
-        <v>420</v>
       </c>
       <c r="D326" s="4" t="s">
         <v>32</v>
@@ -34631,7 +34637,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>43</v>
@@ -34729,7 +34735,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>334</v>
@@ -34827,7 +34833,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>31</v>
@@ -34925,7 +34931,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>81</v>
@@ -35121,7 +35127,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>194</v>
@@ -35219,7 +35225,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>201</v>
@@ -35317,7 +35323,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>31</v>
@@ -35415,7 +35421,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>31</v>
@@ -35513,7 +35519,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>31</v>
@@ -35611,10 +35617,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C337" s="4" t="s">
         <v>430</v>
-      </c>
-      <c r="C337" s="4" t="s">
-        <v>431</v>
       </c>
       <c r="D337" s="4" t="s">
         <v>95</v>
@@ -35709,10 +35715,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C338" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="C338" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="D338" s="4" t="s">
         <v>51</v>
@@ -35807,10 +35813,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>53</v>
@@ -35905,7 +35911,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>31</v>
@@ -36003,7 +36009,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>186</v>
@@ -36101,7 +36107,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>31</v>
@@ -36199,7 +36205,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>228</v>
@@ -36297,7 +36303,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>50</v>
@@ -36395,7 +36401,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>31</v>
@@ -36493,7 +36499,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>31</v>
@@ -36591,7 +36597,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>31</v>
@@ -36689,7 +36695,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>113</v>
@@ -36787,10 +36793,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C349" s="4" t="s">
         <v>444</v>
-      </c>
-      <c r="C349" s="4" t="s">
-        <v>445</v>
       </c>
       <c r="D349" s="4" t="s">
         <v>53</v>
@@ -36885,7 +36891,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>78</v>
@@ -36983,7 +36989,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>306</v>
@@ -37081,7 +37087,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>240</v>
@@ -37179,7 +37185,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>113</v>
@@ -37277,7 +37283,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>159</v>
@@ -37375,7 +37381,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>300</v>
@@ -37473,7 +37479,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>361</v>
@@ -37571,10 +37577,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>146</v>
@@ -37667,7 +37673,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>43</v>
@@ -37765,7 +37771,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>272</v>
@@ -37863,7 +37869,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>31</v>
@@ -37961,7 +37967,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>31</v>
@@ -38059,7 +38065,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>31</v>
@@ -38157,7 +38163,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>159</v>
@@ -38255,7 +38261,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>31</v>
@@ -38353,7 +38359,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>81</v>
@@ -38451,7 +38457,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>31</v>
@@ -38549,10 +38555,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C367" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="C367" s="4" t="s">
-        <v>464</v>
       </c>
       <c r="D367" s="4" t="s">
         <v>51</v>
@@ -38647,7 +38653,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>31</v>
@@ -38745,7 +38751,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>31</v>
@@ -38841,7 +38847,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>81</v>
@@ -38939,7 +38945,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>31</v>
@@ -39037,7 +39043,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>31</v>
@@ -39135,10 +39141,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C373" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="C373" s="4" t="s">
-        <v>471</v>
       </c>
       <c r="D373" s="4" t="s">
         <v>51</v>
@@ -39233,7 +39239,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>113</v>
@@ -39331,7 +39337,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>31</v>
@@ -39429,7 +39435,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>31</v>
@@ -39527,7 +39533,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>183</v>
@@ -39721,7 +39727,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>31</v>
@@ -39819,7 +39825,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>31</v>
@@ -39917,7 +39923,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>272</v>
@@ -40015,7 +40021,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>43</v>
@@ -40113,10 +40119,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>146</v>
@@ -40211,7 +40217,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>78</v>
@@ -40309,10 +40315,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C385" s="4" t="s">
         <v>480</v>
-      </c>
-      <c r="C385" s="4" t="s">
-        <v>481</v>
       </c>
       <c r="D385" s="4" t="s">
         <v>51</v>
@@ -40407,7 +40413,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>31</v>
@@ -40505,7 +40511,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>50</v>
@@ -40603,7 +40609,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>31</v>
@@ -40701,7 +40707,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>31</v>
@@ -40799,7 +40805,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>113</v>
@@ -40895,10 +40901,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C391" s="4" t="s">
         <v>487</v>
-      </c>
-      <c r="C391" s="4" t="s">
-        <v>488</v>
       </c>
       <c r="D391" s="4" t="s">
         <v>40</v>
@@ -40991,7 +40997,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>183</v>
@@ -41089,10 +41095,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C393" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="C393" s="4" t="s">
-        <v>491</v>
       </c>
       <c r="D393" s="4" t="s">
         <v>45</v>
@@ -41187,7 +41193,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>31</v>
@@ -41285,7 +41291,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>31</v>
@@ -41383,7 +41389,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>31</v>
@@ -41481,7 +41487,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>31</v>
@@ -41579,7 +41585,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>113</v>
@@ -41677,7 +41683,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>150</v>
@@ -41775,7 +41781,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>194</v>
@@ -41873,7 +41879,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>31</v>
@@ -41971,7 +41977,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>221</v>
@@ -42069,7 +42075,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>194</v>
@@ -42167,10 +42173,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C404" s="4" t="s">
         <v>502</v>
-      </c>
-      <c r="C404" s="4" t="s">
-        <v>503</v>
       </c>
       <c r="D404" s="4" t="s">
         <v>40</v>
@@ -42265,7 +42271,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>31</v>
@@ -42363,7 +42369,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>31</v>
@@ -42461,7 +42467,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>31</v>
@@ -42559,7 +42565,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>43</v>
@@ -42657,7 +42663,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>50</v>
@@ -42753,7 +42759,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>50</v>
@@ -42851,10 +42857,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C411" s="4" t="s">
         <v>510</v>
-      </c>
-      <c r="C411" s="4" t="s">
-        <v>511</v>
       </c>
       <c r="D411" s="4" t="s">
         <v>51</v>
@@ -42949,7 +42955,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>31</v>
@@ -43045,7 +43051,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>81</v>
@@ -43141,7 +43147,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>31</v>
@@ -43239,7 +43245,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>31</v>
@@ -43337,7 +43343,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>31</v>
@@ -43435,7 +43441,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>31</v>
@@ -43531,7 +43537,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>31</v>
@@ -43629,10 +43635,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D419" s="4" t="s">
         <v>95</v>
@@ -43727,7 +43733,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>31</v>
@@ -43923,10 +43929,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C422" s="4" t="s">
         <v>430</v>
-      </c>
-      <c r="C422" s="4" t="s">
-        <v>431</v>
       </c>
       <c r="D422" s="4" t="s">
         <v>53</v>
@@ -44021,7 +44027,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>186</v>
@@ -44119,10 +44125,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D424" s="4" t="s">
         <v>32</v>
@@ -44215,7 +44221,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>221</v>
@@ -44313,7 +44319,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>31</v>
@@ -44409,7 +44415,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>201</v>
@@ -44507,7 +44513,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>31</v>
@@ -44605,7 +44611,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>159</v>
@@ -44703,7 +44709,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>31</v>
@@ -44799,7 +44805,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>150</v>
@@ -44897,7 +44903,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>31</v>
@@ -44995,7 +45001,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>31</v>
@@ -45093,7 +45099,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>31</v>
@@ -45191,7 +45197,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>150</v>
@@ -45289,10 +45295,10 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D436" s="4" t="s">
         <v>45</v>
@@ -45387,7 +45393,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>81</v>
@@ -45485,7 +45491,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>31</v>
@@ -45583,7 +45589,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>31</v>
@@ -45681,7 +45687,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>31</v>
@@ -45779,7 +45785,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>31</v>
@@ -45877,7 +45883,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>43</v>
@@ -45975,7 +45981,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>31</v>
@@ -46071,7 +46077,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>50</v>
@@ -46169,7 +46175,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>31</v>
@@ -46267,7 +46273,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>334</v>
@@ -46363,7 +46369,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>31</v>
@@ -46461,7 +46467,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>31</v>
@@ -46559,7 +46565,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>31</v>
@@ -46655,7 +46661,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>31</v>
@@ -46751,7 +46757,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>240</v>
@@ -46849,7 +46855,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>31</v>
@@ -46947,7 +46953,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>272</v>
@@ -47043,7 +47049,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>31</v>
@@ -47141,7 +47147,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>31</v>
@@ -47239,7 +47245,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>201</v>
@@ -47337,7 +47343,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>240</v>
@@ -47435,7 +47441,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>194</v>
@@ -47533,7 +47539,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>81</v>
@@ -47631,7 +47637,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>203</v>
@@ -47729,7 +47735,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>63</v>
@@ -47827,7 +47833,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>43</v>
@@ -47925,7 +47931,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>31</v>
@@ -48023,7 +48029,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>113</v>
@@ -48119,7 +48125,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>31</v>
@@ -48217,7 +48223,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>113</v>
@@ -48313,7 +48319,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>194</v>
@@ -48411,7 +48417,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>31</v>
@@ -48509,7 +48515,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>31</v>
@@ -48607,7 +48613,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>31</v>
@@ -48705,7 +48711,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>31</v>
@@ -48803,7 +48809,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>31</v>
@@ -48899,7 +48905,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>31</v>
@@ -48997,7 +49003,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>31</v>
@@ -49095,7 +49101,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>113</v>
@@ -49193,7 +49199,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>240</v>
@@ -49291,7 +49297,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>31</v>
@@ -49389,10 +49395,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>53</v>
@@ -49487,7 +49493,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>31</v>
@@ -49585,7 +49591,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>116</v>
@@ -49683,7 +49689,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>31</v>
@@ -49779,7 +49785,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>31</v>
@@ -49877,7 +49883,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>50</v>
@@ -49975,7 +49981,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>31</v>
@@ -50073,7 +50079,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>31</v>
@@ -50171,7 +50177,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>139</v>
@@ -50269,7 +50275,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>31</v>
@@ -50367,7 +50373,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>139</v>
@@ -50463,7 +50469,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>31</v>
@@ -50561,7 +50567,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>31</v>
@@ -50659,7 +50665,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>31</v>
@@ -50755,7 +50761,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>31</v>
@@ -50851,7 +50857,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>31</v>
@@ -50949,7 +50955,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>113</v>
@@ -51045,7 +51051,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>31</v>
@@ -51141,7 +51147,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>31</v>
@@ -51239,7 +51245,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>31</v>
@@ -51337,7 +51343,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>175</v>
@@ -51433,7 +51439,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>31</v>
@@ -51529,7 +51535,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>139</v>

--- a/data/league_data/spain/19/spain_possession.xlsx
+++ b/data/league_data/spain/19/spain_possession.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E454719E-73AF-7940-B357-0A8FEA5D74F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822A3AA0-4DEA-E047-BA38-CC453999FC93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1624,9 +1624,6 @@
     <t>Cheick Doukouré</t>
   </si>
   <si>
-    <t>Emerson</t>
-  </si>
-  <si>
     <t>Ignasi Miquel</t>
   </si>
   <si>
@@ -1811,6 +1808,9 @@
   </si>
   <si>
     <t>Juanfran Moreno</t>
+  </si>
+  <si>
+    <t>Emerson Royal</t>
   </si>
 </sst>
 </file>
@@ -2680,8 +2680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="B259" sqref="B259"/>
+    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="B437" sqref="B437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13979,7 +13979,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>31</v>
@@ -24457,7 +24457,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>31</v>
@@ -27983,7 +27983,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>31</v>
@@ -29353,7 +29353,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>81</v>
@@ -32777,7 +32777,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>31</v>
@@ -45393,7 +45393,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>81</v>
@@ -45491,7 +45491,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>31</v>
@@ -45589,7 +45589,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>31</v>
@@ -45687,7 +45687,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>31</v>
@@ -45785,7 +45785,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>31</v>
@@ -45883,7 +45883,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>43</v>
@@ -45981,7 +45981,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>31</v>
@@ -46077,7 +46077,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>50</v>
@@ -46175,7 +46175,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>31</v>
@@ -46273,7 +46273,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>334</v>
@@ -46369,7 +46369,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>31</v>
@@ -46467,7 +46467,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>31</v>
@@ -46565,7 +46565,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>31</v>
@@ -46661,7 +46661,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>31</v>
@@ -46757,7 +46757,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>240</v>
@@ -46855,7 +46855,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>31</v>
@@ -46953,7 +46953,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>272</v>
@@ -47049,7 +47049,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>31</v>
@@ -47147,7 +47147,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>31</v>
@@ -47245,7 +47245,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>201</v>
@@ -47343,7 +47343,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>240</v>
@@ -47441,7 +47441,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>194</v>
@@ -47539,7 +47539,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>81</v>
@@ -47637,7 +47637,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>203</v>
@@ -47735,7 +47735,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>63</v>
@@ -47833,7 +47833,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>43</v>
@@ -47931,7 +47931,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>31</v>
@@ -48029,7 +48029,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>113</v>
@@ -48125,7 +48125,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>31</v>
@@ -48223,7 +48223,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>113</v>
@@ -48417,7 +48417,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>31</v>
@@ -48515,7 +48515,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>31</v>
@@ -48711,7 +48711,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>31</v>
@@ -48809,7 +48809,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>31</v>
@@ -48905,7 +48905,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>31</v>
@@ -49003,7 +49003,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>31</v>
@@ -49101,7 +49101,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>113</v>
@@ -49199,7 +49199,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>240</v>
@@ -49297,7 +49297,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>31</v>
@@ -49395,7 +49395,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>490</v>
@@ -49493,7 +49493,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>31</v>
@@ -49689,7 +49689,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>31</v>
@@ -49785,7 +49785,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>31</v>
@@ -49883,7 +49883,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>50</v>
@@ -49981,7 +49981,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>31</v>
@@ -50079,7 +50079,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>31</v>
@@ -50177,7 +50177,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>139</v>
@@ -50275,7 +50275,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>31</v>
@@ -50373,7 +50373,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>139</v>
@@ -50469,7 +50469,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>31</v>
@@ -50567,7 +50567,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>31</v>
@@ -50665,7 +50665,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>31</v>
@@ -50761,7 +50761,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>31</v>
@@ -50857,7 +50857,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>31</v>
@@ -50955,7 +50955,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>113</v>
@@ -51051,7 +51051,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>31</v>
@@ -51147,7 +51147,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>31</v>
@@ -51245,7 +51245,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>31</v>
@@ -51343,7 +51343,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>175</v>
@@ -51439,7 +51439,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>31</v>
@@ -51535,7 +51535,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>139</v>
